--- a/China.xlsx
+++ b/China.xlsx
@@ -807,7 +807,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>亞洲</t>
+          <t>韓國</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>歐洲</t>
+          <t>塞浦路斯</t>
         </is>
       </c>
     </row>
